--- a/Debtors.xlsx
+++ b/Debtors.xlsx
@@ -5,21 +5,21 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmurphy\Desktop\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmurphy\PycharmProjects\UCDPA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16EB23E6-5536-4B7E-A271-2FE04C718DEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59B3D8C6-B174-485D-B186-721238B06465}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22940" yWindow="340" windowWidth="14400" windowHeight="7360" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Scheduled Payments - " sheetId="1" r:id="rId1"/>
-    <sheet name="Upfront Debtors" sheetId="4" r:id="rId2"/>
-    <sheet name="Current Debtors" sheetId="2" r:id="rId3"/>
+    <sheet name="Scheduled" sheetId="1" r:id="rId1"/>
+    <sheet name="Upfront" sheetId="4" r:id="rId2"/>
+    <sheet name="Current" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Scheduled Payments - '!$A$1:$L$1863</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Upfront Debtors'!$A$1:$Y$207</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Scheduled!$A$1:$L$1863</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Upfront!$A$1:$Y$207</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -9169,11 +9169,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L1863"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="30.796875" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
@@ -60093,11 +60093,11 @@
         <v>0</v>
       </c>
       <c r="I1273" s="1">
-        <f>DATE(2016,1,31)</f>
+        <f t="shared" ref="I1273:I1280" si="0">DATE(2016,1,31)</f>
         <v>42400</v>
       </c>
       <c r="J1273" s="1">
-        <f>DATE(2015,12,31)</f>
+        <f t="shared" ref="J1273:J1280" si="1">DATE(2015,12,31)</f>
         <v>42369</v>
       </c>
       <c r="K1273" s="2">
@@ -60133,11 +60133,11 @@
         <v>0</v>
       </c>
       <c r="I1274" s="1">
-        <f>DATE(2016,1,31)</f>
+        <f t="shared" si="0"/>
         <v>42400</v>
       </c>
       <c r="J1274" s="1">
-        <f>DATE(2015,12,31)</f>
+        <f t="shared" si="1"/>
         <v>42369</v>
       </c>
       <c r="K1274" s="2">
@@ -60173,11 +60173,11 @@
         <v>0</v>
       </c>
       <c r="I1275" s="1">
-        <f>DATE(2016,1,31)</f>
+        <f t="shared" si="0"/>
         <v>42400</v>
       </c>
       <c r="J1275" s="1">
-        <f>DATE(2015,12,31)</f>
+        <f t="shared" si="1"/>
         <v>42369</v>
       </c>
       <c r="K1275" s="2">
@@ -60213,11 +60213,11 @@
         <v>0</v>
       </c>
       <c r="I1276" s="1">
-        <f>DATE(2016,1,31)</f>
+        <f t="shared" si="0"/>
         <v>42400</v>
       </c>
       <c r="J1276" s="1">
-        <f>DATE(2015,12,31)</f>
+        <f t="shared" si="1"/>
         <v>42369</v>
       </c>
       <c r="K1276" s="2">
@@ -60253,11 +60253,11 @@
         <v>0</v>
       </c>
       <c r="I1277" s="1">
-        <f>DATE(2016,1,31)</f>
+        <f t="shared" si="0"/>
         <v>42400</v>
       </c>
       <c r="J1277" s="1">
-        <f>DATE(2015,12,31)</f>
+        <f t="shared" si="1"/>
         <v>42369</v>
       </c>
       <c r="K1277" s="2">
@@ -60293,11 +60293,11 @@
         <v>0</v>
       </c>
       <c r="I1278" s="1">
-        <f>DATE(2016,1,31)</f>
+        <f t="shared" si="0"/>
         <v>42400</v>
       </c>
       <c r="J1278" s="1">
-        <f>DATE(2015,12,31)</f>
+        <f t="shared" si="1"/>
         <v>42369</v>
       </c>
       <c r="K1278" s="2">
@@ -60333,11 +60333,11 @@
         <v>0</v>
       </c>
       <c r="I1279" s="1">
-        <f>DATE(2016,1,31)</f>
+        <f t="shared" si="0"/>
         <v>42400</v>
       </c>
       <c r="J1279" s="1">
-        <f>DATE(2015,12,31)</f>
+        <f t="shared" si="1"/>
         <v>42369</v>
       </c>
       <c r="K1279" s="2">
@@ -60373,11 +60373,11 @@
         <v>0</v>
       </c>
       <c r="I1280" s="1">
-        <f>DATE(2016,1,31)</f>
+        <f t="shared" si="0"/>
         <v>42400</v>
       </c>
       <c r="J1280" s="1">
-        <f>DATE(2015,12,31)</f>
+        <f t="shared" si="1"/>
         <v>42369</v>
       </c>
       <c r="K1280" s="2">
@@ -83720,7 +83720,7 @@
   <dimension ref="A1:Y209"/>
   <sheetViews>
     <sheetView topLeftCell="I159" workbookViewId="0">
-      <selection activeCell="V177" sqref="V177"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.4"/>
@@ -99161,8 +99161,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC673D9C-9E50-4F63-B160-7EF5CAA1D278}">
   <dimension ref="A1:B54"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="E57" sqref="E57"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.4"/>
